--- a/ExcelFiles/Offices/2.SSM.xlsx
+++ b/ExcelFiles/Offices/2.SSM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josh\Dropbox\Projects\ExcelParse\ExcelFiles\Offices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josh\Dropbox\Projects\Scheduling Program\ExcelFiles\Offices\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -765,7 +765,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="12">
         <v>1</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="12">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="12">
         <v>1</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="12">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="12">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="12">
         <v>0</v>
@@ -855,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="12">
         <v>1</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="12">
         <v>0</v>
@@ -884,7 +884,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="12">
         <v>1</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="12">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="12">
         <v>1</v>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="12">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="12">
         <v>1</v>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="12">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="12">
         <v>1</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="12">
         <v>0</v>
@@ -997,13 +997,13 @@
         <v>0.5</v>
       </c>
       <c r="B15" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="12">
         <v>0</v>
@@ -1026,13 +1026,13 @@
         <v>0.52083333333333304</v>
       </c>
       <c r="B16" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="12">
         <v>0</v>
@@ -1055,13 +1055,13 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="B17" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="12">
         <v>0</v>
@@ -1084,13 +1084,13 @@
         <v>0.5625</v>
       </c>
       <c r="B18" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="12">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="12">
         <v>1</v>
@@ -1145,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="12">
         <v>1</v>
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="12">
         <v>1</v>
@@ -1203,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="12">
         <v>1</v>
@@ -1232,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="12">
         <v>1</v>
@@ -1261,7 +1261,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="12">
         <v>1</v>
@@ -1287,13 +1287,13 @@
         <v>0.70833333333333404</v>
       </c>
       <c r="B25" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="12">
         <v>0</v>
